--- a/DC_test_v4_pert.xlsx
+++ b/DC_test_v4_pert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE85347-BE6F-46A5-8FCF-D9C46295BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC353D6-8C38-4C50-871D-C075FB2D5BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,6 @@
       <c r="E4">
         <v>5.0010499999999999E-2</v>
       </c>
-      <c r="G4" s="6"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
@@ -844,7 +843,6 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
@@ -871,6 +869,7 @@
       <c r="B8">
         <v>1010</v>
       </c>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
